--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il15-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il15-Il2rg.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.542102</v>
+        <v>6.314527000000001</v>
       </c>
       <c r="H2">
-        <v>16.626306</v>
+        <v>18.943581</v>
       </c>
       <c r="I2">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="J2">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.365583</v>
+        <v>35.32109533333334</v>
       </c>
       <c r="N2">
-        <v>73.096749</v>
+        <v>105.963286</v>
       </c>
       <c r="O2">
-        <v>0.3097154004536172</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="P2">
-        <v>0.3097154004536173</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="Q2">
-        <v>135.036546275466</v>
+        <v>223.0360101519074</v>
       </c>
       <c r="R2">
-        <v>1215.328916479194</v>
+        <v>2007.324091367166</v>
       </c>
       <c r="S2">
-        <v>0.07314941945602751</v>
+        <v>0.1078939976778393</v>
       </c>
       <c r="T2">
-        <v>0.07314941945602753</v>
+        <v>0.1078939976778393</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.542102</v>
+        <v>6.314527000000001</v>
       </c>
       <c r="H3">
-        <v>16.626306</v>
+        <v>18.943581</v>
       </c>
       <c r="I3">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="J3">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.684475</v>
       </c>
       <c r="O3">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="P3">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="Q3">
-        <v>6.806578755483333</v>
+        <v>7.755238956108334</v>
       </c>
       <c r="R3">
-        <v>61.25920879935</v>
+        <v>69.797150604975</v>
       </c>
       <c r="S3">
-        <v>0.003687129878378681</v>
+        <v>0.003751608241877822</v>
       </c>
       <c r="T3">
-        <v>0.003687129878378682</v>
+        <v>0.003751608241877822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.542102</v>
+        <v>6.314527000000001</v>
       </c>
       <c r="H4">
-        <v>16.626306</v>
+        <v>18.943581</v>
       </c>
       <c r="I4">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="J4">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.595688</v>
+        <v>2.583168333333334</v>
       </c>
       <c r="N4">
-        <v>13.787064</v>
+        <v>7.749505</v>
       </c>
       <c r="O4">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="P4">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="Q4">
-        <v>25.469771656176</v>
+        <v>16.31148618637834</v>
       </c>
       <c r="R4">
-        <v>229.227944905584</v>
+        <v>146.803375677405</v>
       </c>
       <c r="S4">
-        <v>0.01379699838091427</v>
+        <v>0.007890705413518452</v>
       </c>
       <c r="T4">
-        <v>0.01379699838091427</v>
+        <v>0.00789070541351845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.542102</v>
+        <v>6.314527000000001</v>
       </c>
       <c r="H5">
-        <v>16.626306</v>
+        <v>18.943581</v>
       </c>
       <c r="I5">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="J5">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.48145033333333</v>
+        <v>46.53090866666667</v>
       </c>
       <c r="N5">
-        <v>145.444351</v>
+        <v>139.592726</v>
       </c>
       <c r="O5">
-        <v>0.6162566192058891</v>
+        <v>0.5431835104302428</v>
       </c>
       <c r="P5">
-        <v>0.6162566192058893</v>
+        <v>0.5431835104302427</v>
       </c>
       <c r="Q5">
-        <v>268.6891428552673</v>
+        <v>293.8206791102007</v>
       </c>
       <c r="R5">
-        <v>2418.202285697406</v>
+        <v>2644.386111991806</v>
       </c>
       <c r="S5">
-        <v>0.1455491521081012</v>
+        <v>0.142136185309384</v>
       </c>
       <c r="T5">
-        <v>0.1455491521081012</v>
+        <v>0.142136185309384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>10.576915</v>
       </c>
       <c r="I6">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="J6">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.365583</v>
+        <v>35.32109533333334</v>
       </c>
       <c r="N6">
-        <v>73.096749</v>
+        <v>105.963286</v>
       </c>
       <c r="O6">
-        <v>0.3097154004536172</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="P6">
-        <v>0.3097154004536173</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="Q6">
-        <v>85.904233438815</v>
+        <v>124.5294076825211</v>
       </c>
       <c r="R6">
-        <v>773.138100949335</v>
+        <v>1120.76466914269</v>
       </c>
       <c r="S6">
-        <v>0.04653440108017676</v>
+        <v>0.06024128397100335</v>
       </c>
       <c r="T6">
-        <v>0.04653440108017676</v>
+        <v>0.06024128397100333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10.576915</v>
       </c>
       <c r="I7">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="J7">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.684475</v>
       </c>
       <c r="O7">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="P7">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="Q7">
         <v>4.330042099402777</v>
@@ -883,10 +883,10 @@
         <v>38.970378894625</v>
       </c>
       <c r="S7">
-        <v>0.002345587728120224</v>
+        <v>0.002094664228882658</v>
       </c>
       <c r="T7">
-        <v>0.002345587728120224</v>
+        <v>0.002094664228882658</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>10.576915</v>
       </c>
       <c r="I8">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="J8">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.595688</v>
+        <v>2.583168333333334</v>
       </c>
       <c r="N8">
-        <v>13.787064</v>
+        <v>7.749505</v>
       </c>
       <c r="O8">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="P8">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="Q8">
-        <v>16.20273378084</v>
+        <v>9.107317297452779</v>
       </c>
       <c r="R8">
-        <v>145.82460402756</v>
+        <v>81.965855677075</v>
       </c>
       <c r="S8">
-        <v>0.008777035568217488</v>
+        <v>0.004405678126475902</v>
       </c>
       <c r="T8">
-        <v>0.008777035568217488</v>
+        <v>0.004405678126475902</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>10.576915</v>
       </c>
       <c r="I9">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="J9">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>48.48145033333333</v>
+        <v>46.53090866666667</v>
       </c>
       <c r="N9">
-        <v>145.444351</v>
+        <v>139.592726</v>
       </c>
       <c r="O9">
-        <v>0.6162566192058891</v>
+        <v>0.5431835104302428</v>
       </c>
       <c r="P9">
-        <v>0.6162566192058893</v>
+        <v>0.5431835104302427</v>
       </c>
       <c r="Q9">
-        <v>170.9280597507961</v>
+        <v>164.0511552800322</v>
       </c>
       <c r="R9">
-        <v>1538.352537757165</v>
+        <v>1476.46039752029</v>
       </c>
       <c r="S9">
-        <v>0.09259188482212809</v>
+        <v>0.0793599874512429</v>
       </c>
       <c r="T9">
-        <v>0.0925918848221281</v>
+        <v>0.07935998745124288</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.321440333333333</v>
+        <v>0.510814</v>
       </c>
       <c r="H10">
-        <v>3.964321</v>
+        <v>1.532442</v>
       </c>
       <c r="I10">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642661</v>
       </c>
       <c r="J10">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642662</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.365583</v>
+        <v>35.32109533333334</v>
       </c>
       <c r="N10">
-        <v>73.096749</v>
+        <v>105.963286</v>
       </c>
       <c r="O10">
-        <v>0.3097154004536172</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="P10">
-        <v>0.3097154004536173</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="Q10">
-        <v>32.197664121381</v>
+        <v>18.04250999160134</v>
       </c>
       <c r="R10">
-        <v>289.778977092429</v>
+        <v>162.382589924412</v>
       </c>
       <c r="S10">
-        <v>0.01744150382456202</v>
+        <v>0.008728090723154369</v>
       </c>
       <c r="T10">
-        <v>0.01744150382456202</v>
+        <v>0.008728090723154369</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.321440333333333</v>
+        <v>0.510814</v>
       </c>
       <c r="H11">
-        <v>3.964321</v>
+        <v>1.532442</v>
       </c>
       <c r="I11">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642661</v>
       </c>
       <c r="J11">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642662</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.684475</v>
       </c>
       <c r="O11">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="P11">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="Q11">
-        <v>1.622937957386111</v>
+        <v>0.6273604708833332</v>
       </c>
       <c r="R11">
-        <v>14.606441616475</v>
+        <v>5.64624423795</v>
       </c>
       <c r="S11">
-        <v>0.0008791469618437222</v>
+        <v>0.0003034865497394464</v>
       </c>
       <c r="T11">
-        <v>0.0008791469618437223</v>
+        <v>0.0003034865497394465</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.321440333333333</v>
+        <v>0.510814</v>
       </c>
       <c r="H12">
-        <v>3.964321</v>
+        <v>1.532442</v>
       </c>
       <c r="I12">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642661</v>
       </c>
       <c r="J12">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642662</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.595688</v>
+        <v>2.583168333333334</v>
       </c>
       <c r="N12">
-        <v>13.787064</v>
+        <v>7.749505</v>
       </c>
       <c r="O12">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="P12">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="Q12">
-        <v>6.072927482615999</v>
+        <v>1.319518549023333</v>
       </c>
       <c r="R12">
-        <v>54.65634734354399</v>
+        <v>11.87566694121</v>
       </c>
       <c r="S12">
-        <v>0.00328971031920286</v>
+        <v>0.0006383190372138742</v>
       </c>
       <c r="T12">
-        <v>0.00328971031920286</v>
+        <v>0.0006383190372138743</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.321440333333333</v>
+        <v>0.510814</v>
       </c>
       <c r="H13">
-        <v>3.964321</v>
+        <v>1.532442</v>
       </c>
       <c r="I13">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642661</v>
       </c>
       <c r="J13">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642662</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>48.48145033333333</v>
+        <v>46.53090866666667</v>
       </c>
       <c r="N13">
-        <v>145.444351</v>
+        <v>139.592726</v>
       </c>
       <c r="O13">
-        <v>0.6162566192058891</v>
+        <v>0.5431835104302428</v>
       </c>
       <c r="P13">
-        <v>0.6162566192058893</v>
+        <v>0.5431835104302427</v>
       </c>
       <c r="Q13">
-        <v>64.06534388896343</v>
+        <v>23.76863957965467</v>
       </c>
       <c r="R13">
-        <v>576.5880950006708</v>
+        <v>213.917756216892</v>
       </c>
       <c r="S13">
-        <v>0.03470425482571653</v>
+        <v>0.01149811432631893</v>
       </c>
       <c r="T13">
-        <v>0.03470425482571654</v>
+        <v>0.01149811432631893</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.07613666666666</v>
+        <v>13.78043333333333</v>
       </c>
       <c r="H14">
-        <v>39.22841</v>
+        <v>41.3413</v>
       </c>
       <c r="I14">
-        <v>0.5572537750466106</v>
+        <v>0.571057878943349</v>
       </c>
       <c r="J14">
-        <v>0.5572537750466107</v>
+        <v>0.5710578789433491</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.365583</v>
+        <v>35.32109533333334</v>
       </c>
       <c r="N14">
-        <v>73.096749</v>
+        <v>105.963286</v>
       </c>
       <c r="O14">
-        <v>0.3097154004536172</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="P14">
-        <v>0.3097154004536173</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="Q14">
-        <v>318.60769327101</v>
+        <v>486.7399995013112</v>
       </c>
       <c r="R14">
-        <v>2867.46923943909</v>
+        <v>4380.659995511801</v>
       </c>
       <c r="S14">
-        <v>0.1725900760928509</v>
+        <v>0.2354611900568777</v>
       </c>
       <c r="T14">
-        <v>0.172590076092851</v>
+        <v>0.2354611900568777</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.07613666666666</v>
+        <v>13.78043333333333</v>
       </c>
       <c r="H15">
-        <v>39.22841</v>
+        <v>41.3413</v>
       </c>
       <c r="I15">
-        <v>0.5572537750466106</v>
+        <v>0.571057878943349</v>
       </c>
       <c r="J15">
-        <v>0.5572537750466107</v>
+        <v>0.5710578789433491</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.684475</v>
       </c>
       <c r="O15">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="P15">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="Q15">
-        <v>16.05956621497222</v>
+        <v>16.92455403527778</v>
       </c>
       <c r="R15">
-        <v>144.53609593475</v>
+        <v>152.3209863175</v>
       </c>
       <c r="S15">
-        <v>0.00869948156808187</v>
+        <v>0.008187277886369193</v>
       </c>
       <c r="T15">
-        <v>0.008699481568081873</v>
+        <v>0.008187277886369195</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.07613666666666</v>
+        <v>13.78043333333333</v>
       </c>
       <c r="H16">
-        <v>39.22841</v>
+        <v>41.3413</v>
       </c>
       <c r="I16">
-        <v>0.5572537750466106</v>
+        <v>0.571057878943349</v>
       </c>
       <c r="J16">
-        <v>0.5572537750466107</v>
+        <v>0.5710578789433491</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.595688</v>
+        <v>2.583168333333334</v>
       </c>
       <c r="N16">
-        <v>13.787064</v>
+        <v>7.749505</v>
       </c>
       <c r="O16">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="P16">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="Q16">
-        <v>60.09384436535999</v>
+        <v>35.59717900627778</v>
       </c>
       <c r="R16">
-        <v>540.8445992882399</v>
+        <v>320.3746110565</v>
       </c>
       <c r="S16">
-        <v>0.03255288993573443</v>
+        <v>0.01722018765680524</v>
       </c>
       <c r="T16">
-        <v>0.03255288993573444</v>
+        <v>0.01722018765680524</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.07613666666666</v>
+        <v>13.78043333333333</v>
       </c>
       <c r="H17">
-        <v>39.22841</v>
+        <v>41.3413</v>
       </c>
       <c r="I17">
-        <v>0.5572537750466106</v>
+        <v>0.571057878943349</v>
       </c>
       <c r="J17">
-        <v>0.5572537750466107</v>
+        <v>0.5710578789433491</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>48.48145033333333</v>
+        <v>46.53090866666667</v>
       </c>
       <c r="N17">
-        <v>145.444351</v>
+        <v>139.592726</v>
       </c>
       <c r="O17">
-        <v>0.6162566192058891</v>
+        <v>0.5431835104302428</v>
       </c>
       <c r="P17">
-        <v>0.6162566192058893</v>
+        <v>0.5431835104302427</v>
       </c>
       <c r="Q17">
-        <v>633.9500703568788</v>
+        <v>641.2160848204223</v>
       </c>
       <c r="R17">
-        <v>5705.550633211908</v>
+        <v>5770.944763383801</v>
       </c>
       <c r="S17">
-        <v>0.3434113274499433</v>
+        <v>0.310189223343297</v>
       </c>
       <c r="T17">
-        <v>0.3434113274499434</v>
+        <v>0.310189223343297</v>
       </c>
     </row>
   </sheetData>
